--- a/data/trans_orig/P5_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32B56CB2-C3E0-4E8B-8D6D-1ACED3F76E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EA7295D-16EB-4EF9-9632-16AD7E5473F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B548CEFF-3D92-4B9E-A65D-6C2565C8F238}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{603E07A7-0390-4FA6-BD9D-6A618746BD75}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="633">
-  <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="643">
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>18,64%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>81,36%</t>
   </si>
   <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>83,14%</t>
   </si>
   <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>82,23%</t>
   </si>
   <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>32,96%</t>
   </si>
   <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>36,03%</t>
   </si>
   <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
   </si>
   <si>
     <t>34,51%</t>
   </si>
   <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>67,04%</t>
   </si>
   <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
   </si>
   <si>
     <t>63,97%</t>
   </si>
   <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
   </si>
   <si>
     <t>65,49%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1663 +197,1693 @@
     <t>21,7%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
   </si>
   <si>
     <t>38,79%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2012 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
     <t>26,8%</t>
   </si>
   <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
   </si>
   <si>
     <t>45,07%</t>
   </si>
   <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
   </si>
   <si>
     <t>54,93%</t>
   </si>
   <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2016 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
     <t>34,79%</t>
   </si>
   <si>
-    <t>64,83%</t>
+    <t>64,64%</t>
   </si>
   <si>
     <t>60,53%</t>
   </si>
   <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>20,38%</t>
   </si>
   <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>15,18%</t>
+    <t>15,3%</t>
   </si>
   <si>
     <t>19,43%</t>
@@ -1862,19 +1892,19 @@
     <t>85,69%</t>
   </si>
   <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>79,62%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
   </si>
   <si>
     <t>82,64%</t>
@@ -1883,61 +1913,61 @@
     <t>80,57%</t>
   </si>
   <si>
-    <t>84,82%</t>
+    <t>84,7%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>81,8%</t>
   </si>
   <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
   </si>
   <si>
     <t>77,77%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C3DA85-0764-49E2-9CE5-AF0210EC956C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847C2F8D-5F8F-420A-86A5-B9722DD0C679}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3710,7 +3740,7 @@
         <v>939</v>
       </c>
       <c r="D28" s="7">
-        <v>967378</v>
+        <v>967379</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
@@ -3791,7 +3821,7 @@
         <v>4443</v>
       </c>
       <c r="N29" s="7">
-        <v>4525672</v>
+        <v>4525671</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>179</v>
@@ -3812,7 +3842,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3842,7 +3872,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3880,7 +3910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB07E097-7CA5-4EC9-AB29-55DF00FF6E09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7380A494-B6DA-4457-9CEA-8128497C8DDA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4815,10 +4845,10 @@
         <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>151</v>
@@ -4827,13 +4857,13 @@
         <v>158355</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>278</v>
@@ -4842,13 +4872,13 @@
         <v>292195</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4946,13 @@
         <v>279143</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>253</v>
@@ -4931,13 +4961,13 @@
         <v>278164</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>517</v>
@@ -4946,13 +4976,13 @@
         <v>557307</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4997,13 @@
         <v>383645</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>383</v>
@@ -4982,13 +5012,13 @@
         <v>415689</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>737</v>
@@ -4997,13 +5027,13 @@
         <v>799334</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5101,13 @@
         <v>195852</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>179</v>
@@ -5086,13 +5116,13 @@
         <v>193680</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -5101,13 +5131,13 @@
         <v>389532</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5152,13 @@
         <v>583246</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H26" s="7">
         <v>578</v>
@@ -5137,13 +5167,13 @@
         <v>630173</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M26" s="7">
         <v>1112</v>
@@ -5393,7 +5423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0E071E-0E83-49CB-9D88-075CE6899D33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFD0CEB-D699-4900-807D-12C0E2F1E18D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5690,10 +5720,10 @@
         <v>349</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>350</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>510</v>
@@ -5702,13 +5732,13 @@
         <v>545709</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5753,13 @@
         <v>229177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>232</v>
@@ -5738,13 +5768,13 @@
         <v>250773</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>449</v>
@@ -5753,13 +5783,13 @@
         <v>479950</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5857,13 @@
         <v>99356</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -5842,13 +5872,13 @@
         <v>94909</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M10" s="7">
         <v>193</v>
@@ -5857,13 +5887,13 @@
         <v>194265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5908,13 @@
         <v>219209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>241</v>
@@ -5893,13 +5923,13 @@
         <v>241400</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>474</v>
@@ -5908,10 +5938,10 @@
         <v>460609</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>379</v>
@@ -5988,7 +6018,7 @@
         <v>381</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -6036,7 +6066,7 @@
         <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>389</v>
@@ -6152,7 +6182,7 @@
         <v>53108</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>399</v>
@@ -6298,7 +6328,7 @@
         <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -6307,13 +6337,13 @@
         <v>88913</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>190</v>
@@ -6322,13 +6352,13 @@
         <v>193031</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6373,13 @@
         <v>159005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>174</v>
@@ -6358,13 +6388,13 @@
         <v>183167</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>331</v>
@@ -6373,13 +6403,13 @@
         <v>342172</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6477,13 @@
         <v>254517</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>261</v>
@@ -6462,13 +6492,13 @@
         <v>281030</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>490</v>
@@ -6477,13 +6507,13 @@
         <v>535547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6528,13 @@
         <v>402041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>384</v>
@@ -6513,13 +6543,13 @@
         <v>408993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M23" s="7">
         <v>735</v>
@@ -6528,13 +6558,13 @@
         <v>811034</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6632,13 @@
         <v>218578</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>207</v>
@@ -6617,13 +6647,13 @@
         <v>226826</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>450</v>
       </c>
       <c r="M25" s="7">
         <v>413</v>
@@ -6632,13 +6662,13 @@
         <v>445404</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,13 +6683,13 @@
         <v>560005</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H26" s="7">
         <v>548</v>
@@ -6668,13 +6698,13 @@
         <v>599341</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>457</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M26" s="7">
         <v>1092</v>
@@ -6683,13 +6713,13 @@
         <v>1159346</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6787,13 @@
         <v>1220811</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H28" s="7">
         <v>1213</v>
@@ -6772,13 +6802,13 @@
         <v>1296867</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>2368</v>
@@ -6787,13 +6817,13 @@
         <v>2517677</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6838,13 @@
         <v>2172272</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H29" s="7">
         <v>2123</v>
@@ -6823,13 +6853,13 @@
         <v>2245369</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M29" s="7">
         <v>4198</v>
@@ -6838,13 +6868,13 @@
         <v>4417642</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,7 +6954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163289D1-6F14-42CB-B1BD-D34B39CCB56C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C6463B-FF61-4852-91BA-B810FE1E0606}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6941,7 +6971,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7048,13 +7078,13 @@
         <v>7715</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -7063,13 +7093,13 @@
         <v>10112</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -7078,13 +7108,13 @@
         <v>17827</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7129,13 @@
         <v>252583</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H5" s="7">
         <v>517</v>
@@ -7114,13 +7144,13 @@
         <v>261291</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M5" s="7">
         <v>837</v>
@@ -7129,13 +7159,13 @@
         <v>513873</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7233,13 @@
         <v>75737</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -7218,13 +7248,13 @@
         <v>74116</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -7233,13 +7263,13 @@
         <v>149852</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7284,13 @@
         <v>443560</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H8" s="7">
         <v>620</v>
@@ -7269,13 +7299,13 @@
         <v>480450</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="M8" s="7">
         <v>952</v>
@@ -7284,13 +7314,13 @@
         <v>924012</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7388,13 @@
         <v>76856</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -7373,13 +7403,13 @@
         <v>80614</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M10" s="7">
         <v>197</v>
@@ -7388,13 +7418,13 @@
         <v>157470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7439,13 @@
         <v>245384</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H11" s="7">
         <v>425</v>
@@ -7424,13 +7454,13 @@
         <v>292670</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="M11" s="7">
         <v>699</v>
@@ -7439,13 +7469,13 @@
         <v>538054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7543,13 @@
         <v>66591</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -7528,13 +7558,13 @@
         <v>85390</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -7543,13 +7573,13 @@
         <v>151981</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7594,13 @@
         <v>255649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H14" s="7">
         <v>473</v>
@@ -7579,13 +7609,13 @@
         <v>342504</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M14" s="7">
         <v>699</v>
@@ -7594,13 +7624,13 @@
         <v>598153</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7698,13 @@
         <v>9376</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -7683,13 +7713,13 @@
         <v>5694</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>484</v>
+        <v>556</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -7698,13 +7728,13 @@
         <v>15070</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,13 +7749,13 @@
         <v>187372</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="H17" s="7">
         <v>485</v>
@@ -7734,13 +7764,13 @@
         <v>253819</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="M17" s="7">
         <v>750</v>
@@ -7749,13 +7779,13 @@
         <v>441190</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7853,13 @@
         <v>54201</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -7838,13 +7868,13 @@
         <v>57449</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -7853,13 +7883,13 @@
         <v>111650</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7904,13 @@
         <v>223022</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="H20" s="7">
         <v>365</v>
@@ -7889,13 +7919,13 @@
         <v>218173</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="M20" s="7">
         <v>668</v>
@@ -7904,13 +7934,13 @@
         <v>441195</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,13 +8008,13 @@
         <v>202712</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>165</v>
+        <v>590</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="H22" s="7">
         <v>329</v>
@@ -7993,13 +8023,13 @@
         <v>362108</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>592</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="M22" s="7">
         <v>522</v>
@@ -8008,13 +8038,13 @@
         <v>564820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8059,13 @@
         <v>424723</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>175</v>
+        <v>600</v>
       </c>
       <c r="H23" s="7">
         <v>630</v>
@@ -8044,13 +8074,13 @@
         <v>441316</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>220</v>
+        <v>601</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="M23" s="7">
         <v>1034</v>
@@ -8059,13 +8089,13 @@
         <v>866039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,13 +8163,13 @@
         <v>122982</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -8148,13 +8178,13 @@
         <v>176965</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="M25" s="7">
         <v>337</v>
@@ -8163,13 +8193,13 @@
         <v>299947</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,13 +8214,13 @@
         <v>736446</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="H26" s="7">
         <v>848</v>
@@ -8199,13 +8229,13 @@
         <v>691469</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="M26" s="7">
         <v>1487</v>
@@ -8214,13 +8244,13 @@
         <v>1427915</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8288,13 +8318,13 @@
         <v>616170</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="H28" s="7">
         <v>1002</v>
@@ -8303,13 +8333,13 @@
         <v>852448</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="M28" s="7">
         <v>1613</v>
@@ -8318,13 +8348,13 @@
         <v>1468618</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,13 +8369,13 @@
         <v>2768738</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="H29" s="7">
         <v>4363</v>
@@ -8354,13 +8384,13 @@
         <v>2981692</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="M29" s="7">
         <v>7126</v>
@@ -8369,13 +8399,13 @@
         <v>5750430</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P5_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EA7295D-16EB-4EF9-9632-16AD7E5473F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0844B526-BC88-4E5E-BD34-4D82E74EF8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{603E07A7-0390-4FA6-BD9D-6A618746BD75}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{765B084F-2315-4A8A-B196-2856DA5FBBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="652">
   <si>
     <t>Población que tiene algún problema medioambiental en la zona de residencia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -593,7 +593,58 @@
     <t>Población que tiene algún problema medioambiental en la zona de residencia en 2012 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
   </si>
   <si>
     <t>38,81%</t>
@@ -704,58 +755,52 @@
     <t>54,85%</t>
   </si>
   <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
   </si>
   <si>
     <t>69,4%</t>
@@ -1484,490 +1529,472 @@
     <t>Población que tiene algún problema medioambiental en la zona de residencia en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>85,1%</t>
   </si>
   <si>
     <t>79,33%</t>
   </si>
   <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
 </sst>
 </file>
@@ -2379,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847C2F8D-5F8F-420A-86A5-B9722DD0C679}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAADAD6-5325-477C-B61E-3E515879213A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3740,7 +3767,7 @@
         <v>939</v>
       </c>
       <c r="D28" s="7">
-        <v>967379</v>
+        <v>967378</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
@@ -3806,7 +3833,7 @@
         <v>2168</v>
       </c>
       <c r="I29" s="7">
-        <v>2216507</v>
+        <v>2216506</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>176</v>
@@ -3821,7 +3848,7 @@
         <v>4443</v>
       </c>
       <c r="N29" s="7">
-        <v>4525671</v>
+        <v>4525672</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>179</v>
@@ -3842,7 +3869,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3857,7 +3884,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3872,7 +3899,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3910,7 +3937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7380A494-B6DA-4457-9CEA-8128497C8DDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32C69C6-E79D-465B-8D03-6071164BB1FB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4028,43 +4055,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="D4" s="7">
+        <v>130206</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="I4" s="7">
+        <v>128405</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="N4" s="7">
+        <v>258611</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,43 +4106,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="D5" s="7">
+        <v>161238</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="I5" s="7">
+        <v>154959</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>295</v>
+      </c>
+      <c r="N5" s="7">
+        <v>316197</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,43 +4157,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="D6" s="7">
+        <v>291444</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="I6" s="7">
+        <v>283364</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>532</v>
+      </c>
+      <c r="N6" s="7">
+        <v>574808</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4216,13 @@
         <v>196179</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>198</v>
@@ -4186,13 +4231,13 @@
         <v>219668</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>377</v>
@@ -4201,13 +4246,13 @@
         <v>415847</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4267,13 @@
         <v>309348</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>282</v>
@@ -4237,13 +4282,13 @@
         <v>304097</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>575</v>
@@ -4252,13 +4297,13 @@
         <v>613445</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4371,13 @@
         <v>147029</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>168</v>
@@ -4341,13 +4386,13 @@
         <v>179266</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>315</v>
@@ -4356,13 +4401,13 @@
         <v>326295</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4422,13 @@
         <v>176065</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>149</v>
@@ -4392,13 +4437,13 @@
         <v>161754</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>320</v>
@@ -4407,13 +4452,13 @@
         <v>337819</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,49 +4520,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>114</v>
+      </c>
+      <c r="D13" s="7">
+        <v>122533</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="7">
-        <v>252739</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="I13" s="7">
-        <v>286947</v>
+        <v>158542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
-        <v>502</v>
+        <v>265</v>
       </c>
       <c r="N13" s="7">
-        <v>539686</v>
+        <v>281075</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,49 +4571,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>384</v>
+        <v>229</v>
       </c>
       <c r="D14" s="7">
-        <v>411520</v>
+        <v>250281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
-        <v>358</v>
+        <v>218</v>
       </c>
       <c r="I14" s="7">
-        <v>383398</v>
+        <v>228439</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
-        <v>742</v>
+        <v>447</v>
       </c>
       <c r="N14" s="7">
-        <v>794918</v>
+        <v>478721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,10 +4622,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>622</v>
+        <v>343</v>
       </c>
       <c r="D15" s="7">
-        <v>664259</v>
+        <v>372814</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4592,10 +4637,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>622</v>
+        <v>369</v>
       </c>
       <c r="I15" s="7">
-        <v>670345</v>
+        <v>386981</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4607,10 +4652,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1244</v>
+        <v>712</v>
       </c>
       <c r="N15" s="7">
-        <v>1334604</v>
+        <v>759796</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4636,13 +4681,13 @@
         <v>147553</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -4651,13 +4696,13 @@
         <v>136192</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>268</v>
@@ -4666,13 +4711,13 @@
         <v>283745</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,13 +4732,13 @@
         <v>65065</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>79</v>
@@ -4702,13 +4747,13 @@
         <v>83399</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>140</v>
@@ -4717,13 +4762,13 @@
         <v>148464</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4836,13 @@
         <v>140141</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H19" s="7">
         <v>118</v>
@@ -4806,13 +4851,13 @@
         <v>121676</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -4821,13 +4866,13 @@
         <v>261817</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4887,13 @@
         <v>133840</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>151</v>
@@ -4857,13 +4902,13 @@
         <v>158355</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>278</v>
@@ -4872,13 +4917,13 @@
         <v>292195</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4991,13 @@
         <v>279143</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>253</v>
@@ -4961,13 +5006,13 @@
         <v>278164</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>517</v>
@@ -4976,13 +5021,13 @@
         <v>557307</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +5042,13 @@
         <v>383645</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>383</v>
@@ -5012,13 +5057,13 @@
         <v>415689</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>737</v>
@@ -5027,13 +5072,13 @@
         <v>799334</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5146,13 @@
         <v>195852</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>179</v>
@@ -5116,13 +5161,13 @@
         <v>193680</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -5131,13 +5176,13 @@
         <v>389532</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5197,13 @@
         <v>583246</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>578</v>
@@ -5167,13 +5212,13 @@
         <v>630173</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>1112</v>
@@ -5182,13 +5227,13 @@
         <v>1213419</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5301,13 @@
         <v>1358635</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="H28" s="7">
         <v>1313</v>
@@ -5271,13 +5316,13 @@
         <v>1415593</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="M28" s="7">
         <v>2593</v>
@@ -5286,13 +5331,13 @@
         <v>2774228</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5352,13 @@
         <v>2062730</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="H29" s="7">
         <v>1980</v>
@@ -5322,13 +5367,13 @@
         <v>2136865</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>3904</v>
@@ -5337,13 +5382,13 @@
         <v>4199595</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,7 +5468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFD0CEB-D699-4900-807D-12C0E2F1E18D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1F2C44-5839-4E05-95F0-9E0B98CDE05A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5440,7 +5485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5547,13 +5592,13 @@
         <v>107215</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7">
         <v>132</v>
@@ -5562,13 +5607,13 @@
         <v>140503</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>228</v>
@@ -5577,13 +5622,13 @@
         <v>247717</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5643,13 @@
         <v>186546</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>145</v>
@@ -5613,13 +5658,13 @@
         <v>148200</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>315</v>
@@ -5628,13 +5673,13 @@
         <v>334747</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5747,13 @@
         <v>273398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="H7" s="7">
         <v>252</v>
@@ -5717,13 +5762,13 @@
         <v>272311</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="M7" s="7">
         <v>510</v>
@@ -5732,13 +5777,13 @@
         <v>545709</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5798,13 @@
         <v>229177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="H8" s="7">
         <v>232</v>
@@ -5768,13 +5813,13 @@
         <v>250773</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="M8" s="7">
         <v>449</v>
@@ -5783,13 +5828,13 @@
         <v>479950</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5902,13 @@
         <v>99356</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -5872,13 +5917,13 @@
         <v>94909</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>193</v>
@@ -5887,10 +5932,10 @@
         <v>194265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>172</v>
@@ -5908,13 +5953,13 @@
         <v>219209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="H11" s="7">
         <v>241</v>
@@ -5923,13 +5968,13 @@
         <v>241400</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="M11" s="7">
         <v>474</v>
@@ -5938,13 +5983,13 @@
         <v>460609</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,13 +6057,13 @@
         <v>115352</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -6027,13 +6072,13 @@
         <v>139266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>241</v>
@@ -6042,13 +6087,13 @@
         <v>254618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6108,13 @@
         <v>253345</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>230</v>
@@ -6078,13 +6123,13 @@
         <v>248017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>470</v>
@@ -6093,13 +6138,13 @@
         <v>501362</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,13 +6212,13 @@
         <v>48278</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -6182,13 +6227,13 @@
         <v>53108</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -6200,10 +6245,10 @@
         <v>127</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,13 +6263,13 @@
         <v>162943</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>169</v>
@@ -6233,13 +6278,13 @@
         <v>165479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>332</v>
@@ -6251,10 +6296,10 @@
         <v>136</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6367,13 @@
         <v>104118</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -6337,13 +6382,13 @@
         <v>88913</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>190</v>
@@ -6352,13 +6397,13 @@
         <v>193031</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,13 +6418,13 @@
         <v>159005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>174</v>
@@ -6388,13 +6433,13 @@
         <v>183167</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>331</v>
@@ -6403,13 +6448,13 @@
         <v>342172</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6522,13 @@
         <v>254517</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>261</v>
@@ -6492,13 +6537,13 @@
         <v>281030</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>490</v>
@@ -6507,13 +6552,13 @@
         <v>535547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6573,13 @@
         <v>402041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="H23" s="7">
         <v>384</v>
@@ -6543,13 +6588,13 @@
         <v>408993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="M23" s="7">
         <v>735</v>
@@ -6558,13 +6603,13 @@
         <v>811034</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,10 +6677,10 @@
         <v>218578</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>166</v>
@@ -6647,13 +6692,13 @@
         <v>226826</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="M25" s="7">
         <v>413</v>
@@ -6662,13 +6707,13 @@
         <v>445404</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6728,13 @@
         <v>560005</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="H26" s="7">
         <v>548</v>
@@ -6698,13 +6743,13 @@
         <v>599341</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>1092</v>
@@ -6713,13 +6758,13 @@
         <v>1159346</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,13 +6832,13 @@
         <v>1220811</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="H28" s="7">
         <v>1213</v>
@@ -6802,13 +6847,13 @@
         <v>1296867</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="M28" s="7">
         <v>2368</v>
@@ -6817,13 +6862,13 @@
         <v>2517677</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,13 +6883,13 @@
         <v>2172272</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="H29" s="7">
         <v>2123</v>
@@ -6853,13 +6898,13 @@
         <v>2245369</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="M29" s="7">
         <v>4198</v>
@@ -6868,13 +6913,13 @@
         <v>4417642</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,7 +6999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C6463B-FF61-4852-91BA-B810FE1E0606}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C4AC1E-703D-4F6F-9AD0-E0A81AF71C88}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6971,7 +7016,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7075,46 +7120,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>7715</v>
+        <v>9505</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>10112</v>
+        <v>10670</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>17827</v>
+        <v>20175</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,46 +7171,46 @@
         <v>320</v>
       </c>
       <c r="D5" s="7">
-        <v>252583</v>
+        <v>301938</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="H5" s="7">
         <v>517</v>
       </c>
       <c r="I5" s="7">
-        <v>261291</v>
+        <v>278965</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="M5" s="7">
         <v>837</v>
       </c>
       <c r="N5" s="7">
-        <v>513873</v>
+        <v>580902</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,7 +7222,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7192,7 +7237,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7207,7 +7252,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7230,46 +7275,46 @@
         <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>75737</v>
+        <v>75581</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
       </c>
       <c r="I7" s="7">
-        <v>74116</v>
+        <v>68843</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
       </c>
       <c r="N7" s="7">
-        <v>149852</v>
+        <v>144424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7281,46 +7326,46 @@
         <v>332</v>
       </c>
       <c r="D8" s="7">
-        <v>443560</v>
+        <v>442809</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="H8" s="7">
         <v>620</v>
       </c>
       <c r="I8" s="7">
-        <v>480450</v>
+        <v>446126</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="M8" s="7">
         <v>952</v>
       </c>
       <c r="N8" s="7">
-        <v>924012</v>
+        <v>888935</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,7 +7377,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7347,7 +7392,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7362,7 +7407,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7385,46 +7430,46 @@
         <v>86</v>
       </c>
       <c r="D10" s="7">
-        <v>76856</v>
+        <v>75131</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
       </c>
       <c r="I10" s="7">
-        <v>80614</v>
+        <v>75185</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="M10" s="7">
         <v>197</v>
       </c>
       <c r="N10" s="7">
-        <v>157470</v>
+        <v>150316</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,46 +7481,46 @@
         <v>274</v>
       </c>
       <c r="D11" s="7">
-        <v>245384</v>
+        <v>240919</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="H11" s="7">
         <v>425</v>
       </c>
       <c r="I11" s="7">
-        <v>292670</v>
+        <v>273943</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="M11" s="7">
         <v>699</v>
       </c>
       <c r="N11" s="7">
-        <v>538054</v>
+        <v>514862</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,7 +7532,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7502,7 +7547,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7517,7 +7562,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7540,46 +7585,46 @@
         <v>66</v>
       </c>
       <c r="D13" s="7">
-        <v>66591</v>
+        <v>64682</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
       </c>
       <c r="I13" s="7">
-        <v>85390</v>
+        <v>78372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
       </c>
       <c r="N13" s="7">
-        <v>151981</v>
+        <v>143054</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,46 +7636,46 @@
         <v>226</v>
       </c>
       <c r="D14" s="7">
-        <v>255649</v>
+        <v>247875</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="H14" s="7">
         <v>473</v>
       </c>
       <c r="I14" s="7">
-        <v>342504</v>
+        <v>396733</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="M14" s="7">
         <v>699</v>
       </c>
       <c r="N14" s="7">
-        <v>598153</v>
+        <v>644608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,7 +7687,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7657,7 +7702,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>427894</v>
+        <v>475105</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7672,7 +7717,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750134</v>
+        <v>787662</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7695,46 +7740,46 @@
         <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>9376</v>
+        <v>8461</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>5694</v>
+        <v>5248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
       </c>
       <c r="N16" s="7">
-        <v>15070</v>
+        <v>13709</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,46 +7791,46 @@
         <v>265</v>
       </c>
       <c r="D17" s="7">
-        <v>187372</v>
+        <v>170281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="H17" s="7">
         <v>485</v>
       </c>
       <c r="I17" s="7">
-        <v>253819</v>
+        <v>253531</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="M17" s="7">
         <v>750</v>
       </c>
       <c r="N17" s="7">
-        <v>441190</v>
+        <v>423812</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,7 +7842,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7812,7 +7857,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7827,7 +7872,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7850,46 +7895,46 @@
         <v>68</v>
       </c>
       <c r="D19" s="7">
-        <v>54201</v>
+        <v>52019</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
       </c>
       <c r="I19" s="7">
-        <v>57449</v>
+        <v>53145</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
       </c>
       <c r="N19" s="7">
-        <v>111650</v>
+        <v>105164</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>577</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,46 +7946,46 @@
         <v>303</v>
       </c>
       <c r="D20" s="7">
-        <v>223022</v>
+        <v>217617</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="H20" s="7">
         <v>365</v>
       </c>
       <c r="I20" s="7">
-        <v>218173</v>
+        <v>203911</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="M20" s="7">
         <v>668</v>
       </c>
       <c r="N20" s="7">
-        <v>441195</v>
+        <v>421528</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>586</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,7 +7997,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7967,7 +8012,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7982,7 +8027,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -8005,46 +8050,46 @@
         <v>193</v>
       </c>
       <c r="D22" s="7">
-        <v>202712</v>
+        <v>203878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>589</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="H22" s="7">
         <v>329</v>
       </c>
       <c r="I22" s="7">
-        <v>362108</v>
+        <v>437022</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="M22" s="7">
         <v>522</v>
       </c>
       <c r="N22" s="7">
-        <v>564820</v>
+        <v>640900</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,46 +8101,46 @@
         <v>404</v>
       </c>
       <c r="D23" s="7">
-        <v>424723</v>
+        <v>420073</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>598</v>
+        <v>437</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="H23" s="7">
         <v>630</v>
       </c>
       <c r="I23" s="7">
-        <v>441316</v>
+        <v>411513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="M23" s="7">
         <v>1034</v>
       </c>
       <c r="N23" s="7">
-        <v>866039</v>
+        <v>831586</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,7 +8152,7 @@
         <v>597</v>
       </c>
       <c r="D24" s="7">
-        <v>627435</v>
+        <v>623951</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8122,7 +8167,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>803424</v>
+        <v>848535</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8137,7 +8182,7 @@
         <v>1556</v>
       </c>
       <c r="N24" s="7">
-        <v>1430859</v>
+        <v>1472486</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8160,46 +8205,46 @@
         <v>123</v>
       </c>
       <c r="D25" s="7">
-        <v>122982</v>
+        <v>105342</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
       </c>
       <c r="I25" s="7">
-        <v>176965</v>
+        <v>146601</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="M25" s="7">
         <v>337</v>
       </c>
       <c r="N25" s="7">
-        <v>299947</v>
+        <v>251943</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,46 +8256,46 @@
         <v>639</v>
       </c>
       <c r="D26" s="7">
-        <v>736446</v>
+        <v>823378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="H26" s="7">
         <v>848</v>
       </c>
       <c r="I26" s="7">
-        <v>691469</v>
+        <v>571130</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="M26" s="7">
         <v>1487</v>
       </c>
       <c r="N26" s="7">
-        <v>1427915</v>
+        <v>1394509</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,7 +8307,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8277,7 +8322,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8292,7 +8337,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8315,46 +8360,46 @@
         <v>611</v>
       </c>
       <c r="D28" s="7">
-        <v>616170</v>
+        <v>594599</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="H28" s="7">
         <v>1002</v>
       </c>
       <c r="I28" s="7">
-        <v>852448</v>
+        <v>875086</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>629</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="M28" s="7">
         <v>1613</v>
       </c>
       <c r="N28" s="7">
-        <v>1468618</v>
+        <v>1469685</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8366,46 +8411,46 @@
         <v>2763</v>
       </c>
       <c r="D29" s="7">
-        <v>2768738</v>
+        <v>2864890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="H29" s="7">
         <v>4363</v>
       </c>
       <c r="I29" s="7">
-        <v>2981692</v>
+        <v>2835852</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>639</v>
+        <v>21</v>
       </c>
       <c r="M29" s="7">
         <v>7126</v>
       </c>
       <c r="N29" s="7">
-        <v>5750430</v>
+        <v>5700741</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8417,7 +8462,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3384908</v>
+        <v>3459489</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8432,7 +8477,7 @@
         <v>5365</v>
       </c>
       <c r="I30" s="7">
-        <v>3834140</v>
+        <v>3710938</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8447,7 +8492,7 @@
         <v>8739</v>
       </c>
       <c r="N30" s="7">
-        <v>7219048</v>
+        <v>7170426</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
